--- a/PulsesEarth/geological_events.xlsx
+++ b/PulsesEarth/geological_events.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\prog\github\geological-menagerie\PulsesEarth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5B981D-4055-4DA8-99CF-6D92257CE916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5159E866-762B-4B06-88D4-778D402DCB9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-30" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="103">
-  <si>
-    <t>Sequence Boundary4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
   <si>
     <t>0–9</t>
   </si>
@@ -163,9 +160,6 @@
     <t>120–129</t>
   </si>
   <si>
-    <t>1248</t>
-  </si>
-  <si>
     <t>124</t>
   </si>
   <si>
@@ -307,36 +301,47 @@
     <t>260</t>
   </si>
   <si>
-    <t>Interval (Ma)</t>
-  </si>
-  <si>
     <t>MarineExtinction</t>
   </si>
   <si>
-    <t>Anoxic Event</t>
-  </si>
-  <si>
-    <t>Continental Basalt</t>
-  </si>
-  <si>
-    <t>Non-Marine Extinction</t>
-  </si>
-  <si>
-    <t>Changes in Spreading rate</t>
-  </si>
-  <si>
-    <t>Intra-Plate Volcanism</t>
-  </si>
-  <si>
     <t>220–229</t>
+  </si>
+  <si>
+    <t>AnoxicEvent</t>
+  </si>
+  <si>
+    <t>ContinentalBasalt</t>
+  </si>
+  <si>
+    <t>SequenceBoundary</t>
+  </si>
+  <si>
+    <t>NonMarineExtinction</t>
+  </si>
+  <si>
+    <t>ChangesSpreadingRate</t>
+  </si>
+  <si>
+    <t>IntraPlateVolcanism</t>
+  </si>
+  <si>
+    <t>IntervalMa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -364,8 +369,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:H25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,721 +694,722 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
-      </c>
       <c r="H14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
       <c r="H16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
         <v>61</v>
       </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
       <c r="H17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>68</v>
-      </c>
       <c r="H19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
         <v>87</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E27" t="s">
         <v>88</v>
       </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
         <v>91</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E28" t="s">
         <v>92</v>
       </c>
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" t="s">
-        <v>94</v>
-      </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
